--- a/en/application_framework/application_framework/handlers/images/NablarchTagHandler/images.xlsx
+++ b/en/application_framework/application_framework/handlers/images/NablarchTagHandler/images.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tie303177\work\ssd\oss\nablarch-document\en\application_framework\application_framework\handlers\images\NablarchTagHandler\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF0AF98-8877-4E2B-BD36-2E3F1BD7702D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="14580"/>
+    <workbookView xWindow="825" yWindow="1185" windowWidth="12660" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NablarchTagHandler" sheetId="4" r:id="rId1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,6 +95,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -97,26 +106,32 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="角丸四角形 8"/>
+        <xdr:cNvPr id="9" name="角丸四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="666750" y="571500"/>
-          <a:ext cx="2800350" cy="4667250"/>
+          <a:off x="504825" y="638174"/>
+          <a:ext cx="3162300" cy="4600575"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -148,14 +163,7 @@
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>Nablarch</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>カスタムタグ制御ハンドラ</a:t>
+            <a:t>Nablarch custom tag control handler</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -164,26 +172,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133348</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:colOff>200024</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="角丸四角形 9"/>
+        <xdr:cNvPr id="10" name="角丸四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1057274" y="1143000"/>
-          <a:ext cx="2000250" cy="342900"/>
+          <a:off x="933448" y="1143000"/>
+          <a:ext cx="2266951" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -214,15 +228,7 @@
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>CustomTagConfig</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>の設定</a:t>
+            <a:t>CustomTagConfig configuraton</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -244,7 +250,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="角丸四角形 10"/>
+        <xdr:cNvPr id="11" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -276,18 +288,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
               <a:effectLst/>
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>後続ハンドラの呼び出し</a:t>
+            <a:t>Call subsequent handler</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -296,19 +303,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:colOff>66674</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:colOff>76199</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="10" idx="2"/>
           <a:endCxn id="16" idx="0"/>
@@ -316,8 +329,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057399" y="1485900"/>
-          <a:ext cx="0" cy="247650"/>
+          <a:off x="2066924" y="1485900"/>
+          <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -345,26 +358,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="角丸四角形 16"/>
+        <xdr:cNvPr id="17" name="角丸四角形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3848099" y="4467225"/>
-          <a:ext cx="1600200" cy="685800"/>
+          <a:off x="4095749" y="4629149"/>
+          <a:ext cx="2028826" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -390,11 +409,11 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300" baseline="0">
               <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>後続ハンドラ</a:t>
+            <a:t>Subsequent handler</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -409,14 +428,20 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="11" idx="3"/>
           <a:endCxn id="17" idx="1"/>
@@ -425,7 +450,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3067049" y="4810125"/>
-          <a:ext cx="781050" cy="0"/>
+          <a:ext cx="1028700" cy="4762"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -454,24 +479,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:colOff>76199</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:colOff>76199</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="角丸四角形 15"/>
+        <xdr:cNvPr id="16" name="角丸四角形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1057274" y="1733550"/>
+          <a:off x="1076324" y="1733550"/>
           <a:ext cx="2000250" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -498,12 +529,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
               <a:effectLst/>
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>改竄チェックと復号</a:t>
+            <a:t>Check and decryption</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -512,26 +543,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="角丸四角形 18"/>
+        <xdr:cNvPr id="19" name="角丸四角形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1057274" y="2324100"/>
-          <a:ext cx="2000250" cy="342900"/>
+          <a:off x="809623" y="2324100"/>
+          <a:ext cx="2533651" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -557,12 +594,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
               <a:effectLst/>
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>チェックなし値の設定</a:t>
+            <a:t>Configuring not checked value</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -584,7 +621,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="角丸四角形 19"/>
+        <xdr:cNvPr id="20" name="角丸四角形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -616,12 +659,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
               <a:effectLst/>
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>パラメータの追加</a:t>
+            <a:t>Add parameter</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -643,7 +686,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="角丸四角形 20"/>
+        <xdr:cNvPr id="21" name="角丸四角形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -675,12 +724,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
               <a:effectLst/>
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>アクセスログの出力</a:t>
+            <a:t>Access log output</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -702,7 +751,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="角丸四角形 21"/>
+        <xdr:cNvPr id="22" name="角丸四角形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -734,12 +789,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
               <a:effectLst/>
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>複合キーの復元</a:t>
+            <a:t>Composite key recovery</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -749,19 +804,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:colOff>76199</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:colOff>76199</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="16" idx="2"/>
           <a:endCxn id="19" idx="0"/>
@@ -769,7 +830,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057399" y="2076450"/>
+          <a:off x="2076449" y="2076450"/>
           <a:ext cx="0" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -799,27 +860,33 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:colOff>66674</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
+      <xdr:colOff>76199</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="直線矢印コネクタ 28"/>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="19" idx="2"/>
           <a:endCxn id="20" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2057399" y="2667000"/>
+        <a:xfrm flipH="1">
+          <a:off x="2066924" y="2667000"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -861,7 +928,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線矢印コネクタ 30"/>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="20" idx="2"/>
           <a:endCxn id="21" idx="0"/>
@@ -911,7 +984,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直線矢印コネクタ 33"/>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="21" idx="2"/>
           <a:endCxn id="22" idx="0"/>
@@ -961,7 +1040,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="直線矢印コネクタ 36"/>
+        <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="22" idx="2"/>
           <a:endCxn id="11" idx="0"/>
@@ -1000,7 +1085,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1042,7 +1127,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1075,9 +1160,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1110,6 +1212,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1285,11 +1404,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="BI17" sqref="BI17"/>
+      <selection activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
